--- a/SchedulingData/dynamic16/pso/scheduling2_20.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,249 +462,249 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>208.48</v>
+        <v>201.32</v>
       </c>
       <c r="D2" t="n">
-        <v>269.48</v>
+        <v>249.56</v>
       </c>
       <c r="E2" t="n">
-        <v>10.752</v>
+        <v>14.724</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>269.48</v>
+        <v>232.6</v>
       </c>
       <c r="D3" t="n">
-        <v>329.28</v>
+        <v>293.52</v>
       </c>
       <c r="E3" t="n">
-        <v>7.372</v>
+        <v>11.788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>249.78</v>
+        <v>243.46</v>
       </c>
       <c r="D4" t="n">
-        <v>324.92</v>
+        <v>301.24</v>
       </c>
       <c r="E4" t="n">
-        <v>11.608</v>
+        <v>9.536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>245.52</v>
+        <v>228.9</v>
       </c>
       <c r="D5" t="n">
-        <v>302.62</v>
+        <v>314.82</v>
       </c>
       <c r="E5" t="n">
-        <v>13.368</v>
+        <v>12.188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>329.28</v>
+        <v>314.82</v>
       </c>
       <c r="D6" t="n">
-        <v>382.48</v>
+        <v>385</v>
       </c>
       <c r="E6" t="n">
-        <v>2.692</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>204.86</v>
+        <v>230.6</v>
       </c>
       <c r="D7" t="n">
-        <v>252.68</v>
+        <v>298.18</v>
       </c>
       <c r="E7" t="n">
-        <v>13.272</v>
+        <v>12.652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>252.68</v>
+        <v>259.3</v>
       </c>
       <c r="D8" t="n">
-        <v>308.7</v>
+        <v>322.62</v>
       </c>
       <c r="E8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.528</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>233.72</v>
+        <v>249.56</v>
       </c>
       <c r="D9" t="n">
-        <v>297.02</v>
+        <v>305.96</v>
       </c>
       <c r="E9" t="n">
-        <v>14.928</v>
+        <v>10.704</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>297.02</v>
+        <v>293.52</v>
       </c>
       <c r="D10" t="n">
-        <v>363.28</v>
+        <v>363.96</v>
       </c>
       <c r="E10" t="n">
-        <v>11.892</v>
+        <v>8.824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>205.26</v>
+        <v>322.62</v>
       </c>
       <c r="D11" t="n">
-        <v>256.86</v>
+        <v>382.6</v>
       </c>
       <c r="E11" t="n">
-        <v>14.024</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>302.62</v>
+        <v>301.24</v>
       </c>
       <c r="D12" t="n">
-        <v>345.28</v>
+        <v>370.72</v>
       </c>
       <c r="E12" t="n">
-        <v>10.232</v>
+        <v>5.728</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>345.28</v>
+        <v>385</v>
       </c>
       <c r="D13" t="n">
-        <v>405.94</v>
+        <v>447.92</v>
       </c>
       <c r="E13" t="n">
-        <v>6.776</v>
+        <v>4.648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>324.92</v>
+        <v>370.72</v>
       </c>
       <c r="D14" t="n">
-        <v>428.94</v>
+        <v>440.22</v>
       </c>
       <c r="E14" t="n">
-        <v>7.296</v>
+        <v>2.868</v>
       </c>
     </row>
     <row r="15">
@@ -713,112 +713,112 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>382.48</v>
+        <v>298.18</v>
       </c>
       <c r="D15" t="n">
-        <v>444.1</v>
+        <v>344.78</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>9.612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>444.1</v>
+        <v>305.96</v>
       </c>
       <c r="D16" t="n">
-        <v>514.2</v>
+        <v>375.42</v>
       </c>
       <c r="E16" t="n">
-        <v>26.64</v>
+        <v>6.388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>428.94</v>
+        <v>363.96</v>
       </c>
       <c r="D17" t="n">
-        <v>486.14</v>
+        <v>414.26</v>
       </c>
       <c r="E17" t="n">
-        <v>5.176</v>
+        <v>4.924</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>486.14</v>
+        <v>440.22</v>
       </c>
       <c r="D18" t="n">
-        <v>537.74</v>
+        <v>535.78</v>
       </c>
       <c r="E18" t="n">
-        <v>1.636</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>537.74</v>
+        <v>535.78</v>
       </c>
       <c r="D19" t="n">
-        <v>616.17</v>
+        <v>576.58</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>308.7</v>
+        <v>344.78</v>
       </c>
       <c r="D20" t="n">
-        <v>379.9</v>
+        <v>392.58</v>
       </c>
       <c r="E20" t="n">
-        <v>6.28</v>
+        <v>5.972</v>
       </c>
     </row>
     <row r="21">
@@ -827,169 +827,169 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>616.17</v>
+        <v>375.42</v>
       </c>
       <c r="D21" t="n">
-        <v>669.17</v>
+        <v>441.52</v>
       </c>
       <c r="E21" t="n">
-        <v>26.4</v>
+        <v>1.908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>363.28</v>
+        <v>441.52</v>
       </c>
       <c r="D22" t="n">
-        <v>419.48</v>
+        <v>524.3</v>
       </c>
       <c r="E22" t="n">
-        <v>7.412</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>379.9</v>
+        <v>576.58</v>
       </c>
       <c r="D23" t="n">
-        <v>454.9</v>
+        <v>623.98</v>
       </c>
       <c r="E23" t="n">
-        <v>2.38</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>419.48</v>
+        <v>524.3</v>
       </c>
       <c r="D24" t="n">
-        <v>475.88</v>
+        <v>594.4</v>
       </c>
       <c r="E24" t="n">
-        <v>3.392</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>475.88</v>
+        <v>392.58</v>
       </c>
       <c r="D25" t="n">
-        <v>555.7</v>
+        <v>453.84</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>2.936</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>555.7</v>
+        <v>594.4</v>
       </c>
       <c r="D26" t="n">
-        <v>619.9400000000001</v>
+        <v>666.4</v>
       </c>
       <c r="E26" t="n">
-        <v>26.256</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>454.9</v>
+        <v>447.92</v>
       </c>
       <c r="D27" t="n">
-        <v>541.64</v>
+        <v>529.58</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>541.64</v>
+        <v>529.58</v>
       </c>
       <c r="D28" t="n">
-        <v>601.52</v>
+        <v>629.7</v>
       </c>
       <c r="E28" t="n">
-        <v>26.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>669.17</v>
+        <v>629.7</v>
       </c>
       <c r="D29" t="n">
-        <v>748.87</v>
+        <v>687.7</v>
       </c>
       <c r="E29" t="n">
-        <v>22.5</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>514.2</v>
+        <v>453.84</v>
       </c>
       <c r="D30" t="n">
-        <v>558.5</v>
+        <v>549.37</v>
       </c>
       <c r="E30" t="n">
-        <v>23.34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -1017,74 +1017,74 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>558.5</v>
+        <v>549.37</v>
       </c>
       <c r="D31" t="n">
-        <v>651.3</v>
+        <v>617.11</v>
       </c>
       <c r="E31" t="n">
-        <v>18.66</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>256.86</v>
+        <v>414.26</v>
       </c>
       <c r="D32" t="n">
-        <v>341.02</v>
+        <v>470.8</v>
       </c>
       <c r="E32" t="n">
-        <v>9.208</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>405.94</v>
+        <v>470.8</v>
       </c>
       <c r="D33" t="n">
-        <v>462.74</v>
+        <v>568.4</v>
       </c>
       <c r="E33" t="n">
-        <v>3.696</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>651.3</v>
+        <v>382.6</v>
       </c>
       <c r="D34" t="n">
-        <v>693.9</v>
+        <v>442.7</v>
       </c>
       <c r="E34" t="n">
-        <v>16.02</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="35">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>462.74</v>
+        <v>442.7</v>
       </c>
       <c r="D35" t="n">
-        <v>504.28</v>
+        <v>524.88</v>
       </c>
       <c r="E35" t="n">
-        <v>0.672</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>504.28</v>
+        <v>524.88</v>
       </c>
       <c r="D36" t="n">
-        <v>604.34</v>
+        <v>573.28</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="37">
@@ -1131,74 +1131,74 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>619.9400000000001</v>
+        <v>623.98</v>
       </c>
       <c r="D37" t="n">
-        <v>681.92</v>
+        <v>672.74</v>
       </c>
       <c r="E37" t="n">
-        <v>23.188</v>
+        <v>20.264</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>604.34</v>
+        <v>617.11</v>
       </c>
       <c r="D38" t="n">
-        <v>653.46</v>
+        <v>684.01</v>
       </c>
       <c r="E38" t="n">
-        <v>26.788</v>
+        <v>23.276</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>341.02</v>
+        <v>573.28</v>
       </c>
       <c r="D39" t="n">
-        <v>383.66</v>
+        <v>629.66</v>
       </c>
       <c r="E39" t="n">
-        <v>6.084</v>
+        <v>23.852</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>681.92</v>
+        <v>568.4</v>
       </c>
       <c r="D40" t="n">
-        <v>732.1</v>
+        <v>630.5</v>
       </c>
       <c r="E40" t="n">
-        <v>19.8</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>748.87</v>
+        <v>666.4</v>
       </c>
       <c r="D41" t="n">
-        <v>793.87</v>
+        <v>736.8</v>
       </c>
       <c r="E41" t="n">
-        <v>19.64</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="42">
@@ -1226,93 +1226,93 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>383.66</v>
+        <v>687.7</v>
       </c>
       <c r="D42" t="n">
-        <v>462.66</v>
+        <v>730.2</v>
       </c>
       <c r="E42" t="n">
-        <v>1.284</v>
+        <v>25.24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>462.66</v>
+        <v>672.74</v>
       </c>
       <c r="D43" t="n">
-        <v>541.99</v>
+        <v>734.24</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>16.724</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>541.99</v>
+        <v>684.01</v>
       </c>
       <c r="D44" t="n">
-        <v>623.85</v>
+        <v>757.65</v>
       </c>
       <c r="E44" t="n">
-        <v>25.944</v>
+        <v>19.532</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>653.46</v>
+        <v>630.5</v>
       </c>
       <c r="D45" t="n">
-        <v>731.04</v>
+        <v>715.84</v>
       </c>
       <c r="E45" t="n">
-        <v>22.14</v>
+        <v>22.036</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>732.1</v>
+        <v>629.66</v>
       </c>
       <c r="D46" t="n">
-        <v>766.0599999999999</v>
+        <v>668.26</v>
       </c>
       <c r="E46" t="n">
-        <v>17.044</v>
+        <v>21.132</v>
       </c>
     </row>
     <row r="47">
@@ -1321,36 +1321,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>601.52</v>
+        <v>715.84</v>
       </c>
       <c r="D47" t="n">
-        <v>658.8200000000001</v>
+        <v>758.6</v>
       </c>
       <c r="E47" t="n">
-        <v>23.552</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>pond18</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>693.9</v>
-      </c>
-      <c r="D48" t="n">
-        <v>754.74</v>
-      </c>
-      <c r="E48" t="n">
-        <v>13.056</v>
+        <v>18.9</v>
       </c>
     </row>
   </sheetData>
